--- a/pruebas/Reporte_Proyectos_Huila.xlsx
+++ b/pruebas/Reporte_Proyectos_Huila.xlsx
@@ -1,138 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAELMAURICIOPEREZC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB647A-8A39-4618-BD79-07500AF021DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Seguimiento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>CÓDIGO BPIN</t>
-  </si>
-  <si>
-    <t>AÑO CONTRATO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PROYECTO</t>
-  </si>
-  <si>
-    <t>CONTRATISTA</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>MUNICIPIO</t>
-  </si>
-  <si>
-    <t>INSTITUCIÓN</t>
-  </si>
-  <si>
-    <t>SEDE</t>
-  </si>
-  <si>
-    <t>INDICADOR</t>
-  </si>
-  <si>
-    <t>VALOR TOTAL INICIAL</t>
-  </si>
-  <si>
-    <t>VALOR R.P.</t>
-  </si>
-  <si>
-    <t>VALOR S.G.P.</t>
-  </si>
-  <si>
-    <t>VALOR MEN</t>
-  </si>
-  <si>
-    <t>VALOR S.G.R.</t>
-  </si>
-  <si>
-    <t>FUENTE RECURSOS (TEXTO)</t>
-  </si>
-  <si>
-    <t>ES ADICIÓN</t>
-  </si>
-  <si>
-    <t>VALOR ADICIÓN</t>
-  </si>
-  <si>
-    <t>FUENTE ADICIÓN</t>
-  </si>
-  <si>
-    <t>% AVANCE</t>
-  </si>
-  <si>
-    <t>FECHA SEGUIMIENTO</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>CONSTRUCTOR</t>
-  </si>
-  <si>
-    <t>(Proyecto OCAD PAZ) Construcción de cubiertas y placas de polideportivos escolares para fortalecer espacios de esparcimiento adecuados para la práctica deportiva, recreativa y artística, que promuevan el aprovechamiento del tiempo libre.</t>
-  </si>
-  <si>
-    <t>Apoyar los procesos de infraestructura escolar, realcionados ocn la planeación, diseño, verificación seguimiento, técnico, financiero y afines a este proceso en sus diferentes etapas.</t>
-  </si>
-  <si>
-    <t>ALGECIRAS</t>
-  </si>
-  <si>
-    <t>EL PARAISO</t>
-  </si>
-  <si>
-    <t>SEDES EDUCATIVAS NUEVAS CONSTRUIDAS</t>
-  </si>
-  <si>
-    <t>BIENES Y SERVICIOS</t>
-  </si>
-  <si>
-    <t>PLANEACIÓN ENVÍO EL PROYECTO NUEVAMENTE AL DNP, EL 12 DE ENERO 2026, EN EL MACO DE LA NUEVA CONVOCORIA; EN ESPERA  DE LA RESPUESTA DE REVISION.</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="3">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="60" formatCode="$#,##0.00_);[Red]($#,##0.00)"/>
+    <numFmt numFmtId="61" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,37 +66,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="61" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -516,156 +402,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="26.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" customWidth="1"/>
+    <col min="22" max="22" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>CÓDIGO BPIN</v>
+      </c>
+      <c r="B1" t="str">
+        <v>AÑO CONTRATO</v>
+      </c>
+      <c r="C1" t="str">
+        <v>NOMBRE DEL PROYECTO</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CONTRATISTA</v>
+      </c>
+      <c r="E1" t="str">
+        <v>ACTIVIDAD</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MUNICIPIO</v>
+      </c>
+      <c r="G1" t="str">
+        <v>INSTITUCIÓN</v>
+      </c>
+      <c r="H1" t="str">
+        <v>SEDE</v>
+      </c>
+      <c r="I1" t="str">
+        <v>INDICADOR</v>
+      </c>
+      <c r="J1" t="str">
+        <v>VALOR TOTAL INICIAL</v>
+      </c>
+      <c r="K1" t="str">
+        <v>VALOR R.P.</v>
+      </c>
+      <c r="L1" t="str">
+        <v>VALOR S.G.P.</v>
+      </c>
+      <c r="M1" t="str">
+        <v>VALOR MEN</v>
+      </c>
+      <c r="N1" t="str">
+        <v>VALOR S.G.R.</v>
+      </c>
+      <c r="O1" t="str">
+        <v>FUENTE RECURSOS (TEXTO)</v>
+      </c>
+      <c r="P1" t="str">
+        <v>ES ADICIÓN</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>VALOR ADICIÓN</v>
+      </c>
+      <c r="R1" t="str">
+        <v>FUENTE ADICIÓN</v>
+      </c>
+      <c r="S1" t="str">
+        <v>% AVANCE</v>
+      </c>
+      <c r="T1" t="str">
+        <v>FECHA SEGUIMIENTO</v>
+      </c>
+      <c r="U1" t="str">
+        <v>RESPONSABLE</v>
+      </c>
+      <c r="V1" t="str">
+        <v>OBSERVACIONES</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="189" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>202500000035956</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>10000</v>
       </c>
       <c r="B2" s="1">
         <v>2025</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3038315579</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="C2" t="str">
+        <v>HOLA</v>
+      </c>
+      <c r="D2" t="str">
+        <v>HOLA</v>
+      </c>
+      <c r="E2" t="str">
+        <v>HOLA</v>
+      </c>
+      <c r="F2" t="str">
+        <v>PITALITO</v>
+      </c>
+      <c r="G2" t="str">
+        <v>PITALITO</v>
+      </c>
+      <c r="H2" t="str">
+        <v>PITALITO</v>
+      </c>
+      <c r="I2" t="str">
+        <v>SEDES EDUCATIVAS NUEVAS CONSTRUIDAS</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" s="5">
-        <v>46034</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <v>NO</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>25568.792010324076</v>
+      </c>
+      <c r="U2" t="str">
+        <v>HOLA</v>
+      </c>
+      <c r="V2" t="str">
+        <v>HOLA</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
   </ignoredErrors>
 </worksheet>
 </file>